--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200606.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200606.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84F9CF-90EF-4C6D-8D54-233368D846C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12384" windowHeight="8556"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -399,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9562" uniqueCount="3324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9561" uniqueCount="3323">
   <si>
     <t>序号</t>
   </si>
@@ -10368,16 +10374,12 @@
   </si>
   <si>
     <t>吉木乃县</t>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10572,6 +10574,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10834,56 +10839,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.07421875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.23046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.15234375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.61328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.15234375" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="14" customWidth="1"/>
-    <col min="13" max="15" width="12.453125" style="15" customWidth="1"/>
-    <col min="16" max="22" width="12.453125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="11.90625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="14.6328125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="67.81640625" style="14" customWidth="1"/>
-    <col min="28" max="28" width="65.08984375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="16.1796875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.23046875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.4609375" style="14" customWidth="1"/>
+    <col min="13" max="15" width="12.4609375" style="15" customWidth="1"/>
+    <col min="16" max="22" width="12.4609375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="8.69140625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="11.921875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="11.23046875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="14.61328125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="67.84375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="65.07421875" style="12" customWidth="1"/>
+    <col min="29" max="29" width="16.15234375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="15.1796875" style="12" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="19.08984375" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="15.15234375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="12.84375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="19.07421875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11023,7 +11028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="16.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -11092,18 +11097,18 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="16.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>3323</v>
+      <c r="C3" s="19">
+        <v>43988</v>
       </c>
       <c r="D3" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>47</v>
@@ -11156,7 +11161,7 @@
       </c>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="1:46" ht="16.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11164,10 +11169,10 @@
         <v>53</v>
       </c>
       <c r="C4" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D4" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>47</v>
@@ -11217,7 +11222,7 @@
       </c>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:46" ht="16.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -11225,10 +11230,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D5" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>47</v>
@@ -11278,7 +11283,7 @@
       </c>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:46" ht="16.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11286,10 +11291,10 @@
         <v>53</v>
       </c>
       <c r="C6" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D6" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>47</v>
@@ -11339,7 +11344,7 @@
       </c>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" spans="1:46" ht="16.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -11347,10 +11352,10 @@
         <v>53</v>
       </c>
       <c r="C7" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D7" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>47</v>
@@ -11400,7 +11405,7 @@
       </c>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" spans="1:46" ht="16.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11408,10 +11413,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D8" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>47</v>
@@ -11461,7 +11466,7 @@
       </c>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" spans="1:46" ht="16.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -11469,10 +11474,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D9" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>47</v>
@@ -11522,7 +11527,7 @@
       </c>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" spans="1:46" ht="16.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11530,10 +11535,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D10" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>47</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" spans="1:46" ht="16.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -11591,10 +11596,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D11" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>47</v>
@@ -11644,7 +11649,7 @@
       </c>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" spans="1:46" ht="16.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11652,10 +11657,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D12" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>47</v>
@@ -11705,7 +11710,7 @@
       </c>
       <c r="AJ12" s="13"/>
     </row>
-    <row r="13" spans="1:46" ht="16.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -11713,10 +11718,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D13" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>47</v>
@@ -11766,7 +11771,7 @@
       </c>
       <c r="AJ13" s="13"/>
     </row>
-    <row r="14" spans="1:46" ht="16.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11774,10 +11779,10 @@
         <v>53</v>
       </c>
       <c r="C14" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D14" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>47</v>
@@ -11827,7 +11832,7 @@
       </c>
       <c r="AJ14" s="13"/>
     </row>
-    <row r="15" spans="1:46" ht="16.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -11835,10 +11840,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D15" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>47</v>
@@ -11888,7 +11893,7 @@
       </c>
       <c r="AJ15" s="13"/>
     </row>
-    <row r="16" spans="1:46" ht="16.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -11896,10 +11901,10 @@
         <v>53</v>
       </c>
       <c r="C16" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D16" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>47</v>
@@ -11947,7 +11952,7 @@
       </c>
       <c r="AJ16" s="13"/>
     </row>
-    <row r="17" spans="1:36" ht="16.2">
+    <row r="17" spans="1:36">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -11955,10 +11960,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D17" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>47</v>
@@ -12008,7 +12013,7 @@
       </c>
       <c r="AJ17" s="13"/>
     </row>
-    <row r="18" spans="1:36" ht="16.2">
+    <row r="18" spans="1:36">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -12016,10 +12021,10 @@
         <v>53</v>
       </c>
       <c r="C18" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D18" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>47</v>
@@ -12069,7 +12074,7 @@
       </c>
       <c r="AJ18" s="13"/>
     </row>
-    <row r="19" spans="1:36" ht="16.2">
+    <row r="19" spans="1:36">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -12077,10 +12082,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D19" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>47</v>
@@ -12130,7 +12135,7 @@
       </c>
       <c r="AJ19" s="13"/>
     </row>
-    <row r="20" spans="1:36" ht="16.2">
+    <row r="20" spans="1:36">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -12138,10 +12143,10 @@
         <v>71</v>
       </c>
       <c r="C20" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D20" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>47</v>
@@ -12193,7 +12198,7 @@
       </c>
       <c r="AJ20" s="13"/>
     </row>
-    <row r="21" spans="1:36" ht="16.2">
+    <row r="21" spans="1:36">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -12201,10 +12206,10 @@
         <v>71</v>
       </c>
       <c r="C21" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D21" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>47</v>
@@ -12256,7 +12261,7 @@
       </c>
       <c r="AJ21" s="13"/>
     </row>
-    <row r="22" spans="1:36" ht="16.2">
+    <row r="22" spans="1:36">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -12264,10 +12269,10 @@
         <v>71</v>
       </c>
       <c r="C22" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D22" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>47</v>
@@ -12319,7 +12324,7 @@
       </c>
       <c r="AJ22" s="13"/>
     </row>
-    <row r="23" spans="1:36" ht="16.2">
+    <row r="23" spans="1:36">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -12327,10 +12332,10 @@
         <v>71</v>
       </c>
       <c r="C23" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D23" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>47</v>
@@ -12382,7 +12387,7 @@
       </c>
       <c r="AJ23" s="13"/>
     </row>
-    <row r="24" spans="1:36" ht="16.2">
+    <row r="24" spans="1:36">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -12390,10 +12395,10 @@
         <v>71</v>
       </c>
       <c r="C24" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D24" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>47</v>
@@ -12445,7 +12450,7 @@
       </c>
       <c r="AJ24" s="13"/>
     </row>
-    <row r="25" spans="1:36" ht="16.2">
+    <row r="25" spans="1:36">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -12453,10 +12458,10 @@
         <v>71</v>
       </c>
       <c r="C25" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D25" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>47</v>
@@ -12508,7 +12513,7 @@
       </c>
       <c r="AJ25" s="13"/>
     </row>
-    <row r="26" spans="1:36" ht="16.2">
+    <row r="26" spans="1:36">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -12516,10 +12521,10 @@
         <v>71</v>
       </c>
       <c r="C26" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D26" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>47</v>
@@ -12571,7 +12576,7 @@
       </c>
       <c r="AJ26" s="13"/>
     </row>
-    <row r="27" spans="1:36" ht="16.2">
+    <row r="27" spans="1:36">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -12579,10 +12584,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D27" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>47</v>
@@ -12634,7 +12639,7 @@
       </c>
       <c r="AJ27" s="13"/>
     </row>
-    <row r="28" spans="1:36" ht="16.2">
+    <row r="28" spans="1:36">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -12642,10 +12647,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D28" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>47</v>
@@ -12697,7 +12702,7 @@
       </c>
       <c r="AJ28" s="13"/>
     </row>
-    <row r="29" spans="1:36" ht="16.2">
+    <row r="29" spans="1:36">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -12705,10 +12710,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D29" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>47</v>
@@ -12760,7 +12765,7 @@
       </c>
       <c r="AJ29" s="13"/>
     </row>
-    <row r="30" spans="1:36" ht="16.2">
+    <row r="30" spans="1:36">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -12768,10 +12773,10 @@
         <v>71</v>
       </c>
       <c r="C30" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D30" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>47</v>
@@ -12823,7 +12828,7 @@
       </c>
       <c r="AJ30" s="13"/>
     </row>
-    <row r="31" spans="1:36" ht="16.2">
+    <row r="31" spans="1:36">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -12831,10 +12836,10 @@
         <v>71</v>
       </c>
       <c r="C31" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D31" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>47</v>
@@ -12886,7 +12891,7 @@
       </c>
       <c r="AJ31" s="13"/>
     </row>
-    <row r="32" spans="1:36" ht="16.2">
+    <row r="32" spans="1:36">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -12894,10 +12899,10 @@
         <v>71</v>
       </c>
       <c r="C32" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D32" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>47</v>
@@ -12949,7 +12954,7 @@
       </c>
       <c r="AJ32" s="13"/>
     </row>
-    <row r="33" spans="1:36" ht="16.2">
+    <row r="33" spans="1:36">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -12957,10 +12962,10 @@
         <v>71</v>
       </c>
       <c r="C33" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D33" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>47</v>
@@ -13012,7 +13017,7 @@
       </c>
       <c r="AJ33" s="13"/>
     </row>
-    <row r="34" spans="1:36" ht="16.2">
+    <row r="34" spans="1:36">
       <c r="A34" s="20">
         <v>31</v>
       </c>
@@ -13020,10 +13025,10 @@
         <v>71</v>
       </c>
       <c r="C34" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D34" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>47</v>
@@ -13075,7 +13080,7 @@
       </c>
       <c r="AJ34" s="13"/>
     </row>
-    <row r="35" spans="1:36" ht="16.2">
+    <row r="35" spans="1:36">
       <c r="A35" s="20">
         <v>31</v>
       </c>
@@ -13083,10 +13088,10 @@
         <v>71</v>
       </c>
       <c r="C35" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D35" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>47</v>
@@ -13138,7 +13143,7 @@
       </c>
       <c r="AJ35" s="13"/>
     </row>
-    <row r="36" spans="1:36" ht="16.2">
+    <row r="36" spans="1:36">
       <c r="A36" s="20">
         <v>31</v>
       </c>
@@ -13146,10 +13151,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D36" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>47</v>
@@ -13201,7 +13206,7 @@
       </c>
       <c r="AJ36" s="13"/>
     </row>
-    <row r="37" spans="1:36" ht="16.2">
+    <row r="37" spans="1:36">
       <c r="A37" s="20">
         <v>31</v>
       </c>
@@ -13209,10 +13214,10 @@
         <v>71</v>
       </c>
       <c r="C37" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D37" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>47</v>
@@ -13264,7 +13269,7 @@
       </c>
       <c r="AJ37" s="13"/>
     </row>
-    <row r="38" spans="1:36" ht="16.2">
+    <row r="38" spans="1:36">
       <c r="A38" s="20">
         <v>32</v>
       </c>
@@ -13272,10 +13277,10 @@
         <v>71</v>
       </c>
       <c r="C38" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D38" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>47</v>
@@ -13327,7 +13332,7 @@
       </c>
       <c r="AJ38" s="13"/>
     </row>
-    <row r="39" spans="1:36" ht="16.2">
+    <row r="39" spans="1:36">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -13335,10 +13340,10 @@
         <v>71</v>
       </c>
       <c r="C39" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D39" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>47</v>
@@ -13390,7 +13395,7 @@
       </c>
       <c r="AJ39" s="13"/>
     </row>
-    <row r="40" spans="1:36" ht="16.2">
+    <row r="40" spans="1:36">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -13398,10 +13403,10 @@
         <v>53</v>
       </c>
       <c r="C40" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D40" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>47</v>
@@ -13451,7 +13456,7 @@
       </c>
       <c r="AJ40" s="13"/>
     </row>
-    <row r="41" spans="1:36" ht="16.2">
+    <row r="41" spans="1:36">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -13459,10 +13464,10 @@
         <v>53</v>
       </c>
       <c r="C41" s="19">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D41" s="19">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>47</v>
@@ -13520,7 +13525,7 @@
       </c>
       <c r="AJ41" s="13"/>
     </row>
-    <row r="42" spans="1:36" ht="16.2">
+    <row r="42" spans="1:36">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="19"/>
@@ -13552,25 +13557,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($F49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13579,7 +13584,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -13592,7 +13597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13600,10 +13605,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200606.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200606.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84F9CF-90EF-4C6D-8D54-233368D846C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9C13-F918-4589-AAF9-AD6A7C631C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10843,7 +10843,7 @@
   <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="U51" sqref="U50:U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -11068,9 +11068,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
-      <c r="W2" s="18">
-        <v>1</v>
-      </c>
+      <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="20" t="s">
         <v>49</v>
@@ -13498,9 +13496,7 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="20">
-        <v>1</v>
-      </c>
+      <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20" t="s">
         <v>49</v>
